--- a/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
@@ -6323,7 +6323,7 @@
         <v>2.9</v>
       </c>
       <c r="C126">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D126">
         <v>1.1</v>
@@ -6385,10 +6385,13 @@
         <v>4.1</v>
       </c>
       <c r="E127">
-        <v>4.6</v>
+        <v>4.7</v>
+      </c>
+      <c r="F127">
+        <v>9.1</v>
       </c>
       <c r="G127">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="H127">
         <v>8.199999999999999</v>
@@ -6415,7 +6418,7 @@
         <v>32.4</v>
       </c>
       <c r="P127">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="Q127">
         <v>4.5</v>

--- a/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
@@ -6376,16 +6376,16 @@
         <v>143</v>
       </c>
       <c r="B127">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C127">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="D127">
         <v>4.1</v>
       </c>
       <c r="E127">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F127">
         <v>9.1</v>
@@ -6415,7 +6415,7 @@
         <v>68.2</v>
       </c>
       <c r="O127">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="P127">
         <v>10.5</v>

--- a/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>II-2021</t>
+  </si>
+  <si>
+    <t>III-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6427,6 +6430,14 @@
         <v>7.4</v>
       </c>
     </row>
+    <row r="128" spans="1:18">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="R128">
+        <v>11.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
@@ -6388,10 +6388,10 @@
         <v>4.1</v>
       </c>
       <c r="E127">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F127">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G127">
         <v>6.4</v>
@@ -6433,6 +6433,30 @@
     <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>144</v>
+      </c>
+      <c r="B128">
+        <v>10.6</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K128">
+        <v>9</v>
+      </c>
+      <c r="M128">
+        <v>5.1</v>
+      </c>
+      <c r="P128">
+        <v>13.1</v>
+      </c>
+      <c r="Q128">
+        <v>5.5</v>
       </c>
       <c r="R128">
         <v>11.8</v>

--- a/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
+++ b/12/1/4/Mensual 1955 a 2021 - Trimestral.xlsx
@@ -6440,17 +6440,35 @@
       <c r="C128">
         <v>20</v>
       </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
       <c r="E128">
         <v>6</v>
       </c>
+      <c r="G128">
+        <v>7.4</v>
+      </c>
       <c r="H128">
         <v>9.699999999999999</v>
       </c>
+      <c r="I128">
+        <v>11.8</v>
+      </c>
+      <c r="J128">
+        <v>9.4</v>
+      </c>
       <c r="K128">
         <v>9</v>
       </c>
+      <c r="L128">
+        <v>27.7</v>
+      </c>
       <c r="M128">
         <v>5.1</v>
+      </c>
+      <c r="N128">
+        <v>63.1</v>
       </c>
       <c r="P128">
         <v>13.1</v>
